--- a/experiments/droptc/sentence/DroPTC-all-MiniLM-L6-v2-sentence/unfreeze/ce-uniform/37622020/prediction.xlsx
+++ b/experiments/droptc/sentence/DroPTC-all-MiniLM-L6-v2-sentence/unfreeze/ce-uniform/37622020/prediction.xlsx
@@ -490,7 +490,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0.9982024431228638</v>
+        <v>0.9851171970367432</v>
       </c>
     </row>
     <row r="3">
@@ -518,7 +518,7 @@
         <v>1</v>
       </c>
       <c r="F3" t="n">
-        <v>0.998302698135376</v>
+        <v>0.9852935671806335</v>
       </c>
     </row>
     <row r="4">
@@ -546,7 +546,7 @@
         <v>1</v>
       </c>
       <c r="F4" t="n">
-        <v>0.9179263710975647</v>
+        <v>0.9367655515670776</v>
       </c>
     </row>
     <row r="5">
@@ -574,7 +574,7 @@
         <v>1</v>
       </c>
       <c r="F5" t="n">
-        <v>0.9691370725631714</v>
+        <v>0.9275864958763123</v>
       </c>
     </row>
     <row r="6">
@@ -602,7 +602,7 @@
         <v>1</v>
       </c>
       <c r="F6" t="n">
-        <v>0.9983493089675903</v>
+        <v>0.9853290915489197</v>
       </c>
     </row>
     <row r="7">
@@ -630,7 +630,7 @@
         <v>1</v>
       </c>
       <c r="F7" t="n">
-        <v>0.99837327003479</v>
+        <v>0.9853434562683105</v>
       </c>
     </row>
     <row r="8">
@@ -658,7 +658,7 @@
         <v>1</v>
       </c>
       <c r="F8" t="n">
-        <v>0.9984134435653687</v>
+        <v>0.9853675961494446</v>
       </c>
     </row>
     <row r="9">
@@ -686,7 +686,7 @@
         <v>1</v>
       </c>
       <c r="F9" t="n">
-        <v>0.9983664155006409</v>
+        <v>0.9853265285491943</v>
       </c>
     </row>
     <row r="10">
@@ -714,7 +714,7 @@
         <v>1</v>
       </c>
       <c r="F10" t="n">
-        <v>0.9984134435653687</v>
+        <v>0.9853675961494446</v>
       </c>
     </row>
     <row r="11">
@@ -742,7 +742,7 @@
         <v>1</v>
       </c>
       <c r="F11" t="n">
-        <v>0.9983375072479248</v>
+        <v>0.9852391481399536</v>
       </c>
     </row>
     <row r="12">
@@ -770,7 +770,7 @@
         <v>1</v>
       </c>
       <c r="F12" t="n">
-        <v>0.9984386563301086</v>
+        <v>0.9853870868682861</v>
       </c>
     </row>
     <row r="13">
@@ -798,7 +798,7 @@
         <v>1</v>
       </c>
       <c r="F13" t="n">
-        <v>0.9891581535339355</v>
+        <v>0.9738789796829224</v>
       </c>
     </row>
     <row r="14">
@@ -826,7 +826,7 @@
         <v>1</v>
       </c>
       <c r="F14" t="n">
-        <v>0.9984304308891296</v>
+        <v>0.9853377342224121</v>
       </c>
     </row>
     <row r="15">
@@ -854,7 +854,7 @@
         <v>1</v>
       </c>
       <c r="F15" t="n">
-        <v>0.9972743391990662</v>
+        <v>0.9774270057678223</v>
       </c>
     </row>
     <row r="16">
@@ -882,7 +882,7 @@
         <v>1</v>
       </c>
       <c r="F16" t="n">
-        <v>0.9983516931533813</v>
+        <v>0.985312283039093</v>
       </c>
     </row>
     <row r="17">
@@ -910,7 +910,7 @@
         <v>1</v>
       </c>
       <c r="F17" t="n">
-        <v>0.9983437061309814</v>
+        <v>0.9852345585823059</v>
       </c>
     </row>
     <row r="18">
@@ -938,7 +938,7 @@
         <v>1</v>
       </c>
       <c r="F18" t="n">
-        <v>0.7404175400733948</v>
+        <v>0.7731318473815918</v>
       </c>
     </row>
     <row r="19">
@@ -966,7 +966,7 @@
         <v>1</v>
       </c>
       <c r="F19" t="n">
-        <v>0.9983931183815002</v>
+        <v>0.9853078126907349</v>
       </c>
     </row>
     <row r="20">
@@ -994,7 +994,7 @@
         <v>1</v>
       </c>
       <c r="F20" t="n">
-        <v>0.9983547329902649</v>
+        <v>0.985258162021637</v>
       </c>
     </row>
     <row r="21">
@@ -1022,7 +1022,7 @@
         <v>1</v>
       </c>
       <c r="F21" t="n">
-        <v>0.9983677268028259</v>
+        <v>0.9853391647338867</v>
       </c>
     </row>
     <row r="22">
@@ -1050,7 +1050,7 @@
         <v>1</v>
       </c>
       <c r="F22" t="n">
-        <v>0.9983904361724854</v>
+        <v>0.9853454232215881</v>
       </c>
     </row>
     <row r="23">
@@ -1078,7 +1078,7 @@
         <v>1</v>
       </c>
       <c r="F23" t="n">
-        <v>0.9983882904052734</v>
+        <v>0.9853566288948059</v>
       </c>
     </row>
     <row r="24">
@@ -1106,7 +1106,7 @@
         <v>1</v>
       </c>
       <c r="F24" t="n">
-        <v>0.9984146356582642</v>
+        <v>0.9853575825691223</v>
       </c>
     </row>
     <row r="25">
@@ -1134,7 +1134,7 @@
         <v>1</v>
       </c>
       <c r="F25" t="n">
-        <v>0.9727159738540649</v>
+        <v>0.9299700856208801</v>
       </c>
     </row>
     <row r="26">
@@ -1162,7 +1162,7 @@
         <v>1</v>
       </c>
       <c r="F26" t="n">
-        <v>0.6668632626533508</v>
+        <v>0.7738603353500366</v>
       </c>
     </row>
     <row r="27">
@@ -1190,7 +1190,7 @@
         <v>1</v>
       </c>
       <c r="F27" t="n">
-        <v>0.9983280301094055</v>
+        <v>0.9852935671806335</v>
       </c>
     </row>
     <row r="28">
@@ -1218,7 +1218,7 @@
         <v>1</v>
       </c>
       <c r="F28" t="n">
-        <v>0.998302698135376</v>
+        <v>0.9852935671806335</v>
       </c>
     </row>
     <row r="29">
@@ -1246,7 +1246,7 @@
         <v>1</v>
       </c>
       <c r="F29" t="n">
-        <v>0.9983645081520081</v>
+        <v>0.9853031635284424</v>
       </c>
     </row>
     <row r="30">
@@ -1274,7 +1274,7 @@
         <v>1</v>
       </c>
       <c r="F30" t="n">
-        <v>0.9983046054840088</v>
+        <v>0.9852846264839172</v>
       </c>
     </row>
     <row r="31">
@@ -1302,7 +1302,7 @@
         <v>1</v>
       </c>
       <c r="F31" t="n">
-        <v>0.99826979637146</v>
+        <v>0.9852808117866516</v>
       </c>
     </row>
     <row r="32">
@@ -1330,7 +1330,7 @@
         <v>1</v>
       </c>
       <c r="F32" t="n">
-        <v>0.9983545541763306</v>
+        <v>0.9852697253227234</v>
       </c>
     </row>
     <row r="33">
@@ -1358,7 +1358,7 @@
         <v>1</v>
       </c>
       <c r="F33" t="n">
-        <v>0.9889020919799805</v>
+        <v>0.9684651494026184</v>
       </c>
     </row>
     <row r="34">
@@ -1386,7 +1386,7 @@
         <v>1</v>
       </c>
       <c r="F34" t="n">
-        <v>0.9888888001441956</v>
+        <v>0.972216784954071</v>
       </c>
     </row>
     <row r="35">
@@ -1414,7 +1414,7 @@
         <v>1</v>
       </c>
       <c r="F35" t="n">
-        <v>0.989245593547821</v>
+        <v>0.9739363193511963</v>
       </c>
     </row>
     <row r="36">
@@ -1442,7 +1442,7 @@
         <v>1</v>
       </c>
       <c r="F36" t="n">
-        <v>0.9983537197113037</v>
+        <v>0.985321581363678</v>
       </c>
     </row>
     <row r="37">
@@ -1470,7 +1470,7 @@
         <v>1</v>
       </c>
       <c r="F37" t="n">
-        <v>0.9890614748001099</v>
+        <v>0.9736767411231995</v>
       </c>
     </row>
     <row r="38">
@@ -1498,7 +1498,7 @@
         <v>1</v>
       </c>
       <c r="F38" t="n">
-        <v>0.9984158277511597</v>
+        <v>0.9853748083114624</v>
       </c>
     </row>
     <row r="39">
@@ -1526,7 +1526,7 @@
         <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>0.9417871236801147</v>
+        <v>0.844145655632019</v>
       </c>
     </row>
     <row r="40">
@@ -1554,7 +1554,7 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0.989138662815094</v>
+        <v>0.9686919450759888</v>
       </c>
     </row>
     <row r="41">
@@ -1582,7 +1582,7 @@
         <v>1</v>
       </c>
       <c r="F41" t="n">
-        <v>0.998404324054718</v>
+        <v>0.9853341579437256</v>
       </c>
     </row>
     <row r="42">
@@ -1610,7 +1610,7 @@
         <v>1</v>
       </c>
       <c r="F42" t="n">
-        <v>0.9838277101516724</v>
+        <v>0.967235803604126</v>
       </c>
     </row>
     <row r="43">
@@ -1638,7 +1638,7 @@
         <v>1</v>
       </c>
       <c r="F43" t="n">
-        <v>0.9894458651542664</v>
+        <v>0.968863844871521</v>
       </c>
     </row>
     <row r="44">
@@ -1666,7 +1666,7 @@
         <v>1</v>
       </c>
       <c r="F44" t="n">
-        <v>0.9893883466720581</v>
+        <v>0.9738432765007019</v>
       </c>
     </row>
     <row r="45">
@@ -1694,7 +1694,7 @@
         <v>1</v>
       </c>
       <c r="F45" t="n">
-        <v>0.9898057579994202</v>
+        <v>0.9684354066848755</v>
       </c>
     </row>
     <row r="46">
@@ -1722,7 +1722,7 @@
         <v>1</v>
       </c>
       <c r="F46" t="n">
-        <v>0.9888352751731873</v>
+        <v>0.9684462547302246</v>
       </c>
     </row>
     <row r="47">
@@ -1750,7 +1750,7 @@
         <v>0</v>
       </c>
       <c r="F47" t="n">
-        <v>0.8646504878997803</v>
+        <v>0.8551381826400757</v>
       </c>
     </row>
     <row r="48">
@@ -1778,7 +1778,7 @@
         <v>1</v>
       </c>
       <c r="F48" t="n">
-        <v>0.9889983534812927</v>
+        <v>0.9688500761985779</v>
       </c>
     </row>
     <row r="49">
@@ -1806,7 +1806,7 @@
         <v>1</v>
       </c>
       <c r="F49" t="n">
-        <v>0.9984540939331055</v>
+        <v>0.9854117035865784</v>
       </c>
     </row>
     <row r="50">
@@ -1834,7 +1834,7 @@
         <v>1</v>
       </c>
       <c r="F50" t="n">
-        <v>0.9887858629226685</v>
+        <v>0.968192458152771</v>
       </c>
     </row>
     <row r="51">
@@ -1862,7 +1862,7 @@
         <v>0</v>
       </c>
       <c r="F51" t="n">
-        <v>0.9861337542533875</v>
+        <v>0.9641948342323303</v>
       </c>
     </row>
     <row r="52">
@@ -1890,7 +1890,7 @@
         <v>1</v>
       </c>
       <c r="F52" t="n">
-        <v>0.9982386827468872</v>
+        <v>0.9852020144462585</v>
       </c>
     </row>
     <row r="53">
@@ -1918,7 +1918,7 @@
         <v>1</v>
       </c>
       <c r="F53" t="n">
-        <v>0.9887858629226685</v>
+        <v>0.968192458152771</v>
       </c>
     </row>
     <row r="54">
@@ -1946,7 +1946,7 @@
         <v>0</v>
       </c>
       <c r="F54" t="n">
-        <v>0.987366795539856</v>
+        <v>0.9679135680198669</v>
       </c>
     </row>
     <row r="55">
@@ -1974,7 +1974,7 @@
         <v>1</v>
       </c>
       <c r="F55" t="n">
-        <v>0.998365581035614</v>
+        <v>0.9853273630142212</v>
       </c>
     </row>
     <row r="56">
@@ -2002,7 +2002,7 @@
         <v>1</v>
       </c>
       <c r="F56" t="n">
-        <v>0.9984123706817627</v>
+        <v>0.9853792190551758</v>
       </c>
     </row>
     <row r="57">
@@ -2030,7 +2030,7 @@
         <v>1</v>
       </c>
       <c r="F57" t="n">
-        <v>0.9984097480773926</v>
+        <v>0.9853785037994385</v>
       </c>
     </row>
     <row r="58">
@@ -2058,7 +2058,7 @@
         <v>1</v>
       </c>
       <c r="F58" t="n">
-        <v>0.9892991781234741</v>
+        <v>0.9738250374794006</v>
       </c>
     </row>
     <row r="59">
@@ -2086,7 +2086,7 @@
         <v>1</v>
       </c>
       <c r="F59" t="n">
-        <v>0.9983406066894531</v>
+        <v>0.9853343963623047</v>
       </c>
     </row>
     <row r="60">
@@ -2114,7 +2114,7 @@
         <v>1</v>
       </c>
       <c r="F60" t="n">
-        <v>0.9982947707176208</v>
+        <v>0.985160231590271</v>
       </c>
     </row>
     <row r="61">
@@ -2142,7 +2142,7 @@
         <v>1</v>
       </c>
       <c r="F61" t="n">
-        <v>0.9983970522880554</v>
+        <v>0.9853476881980896</v>
       </c>
     </row>
     <row r="62">
@@ -2170,7 +2170,7 @@
         <v>1</v>
       </c>
       <c r="F62" t="n">
-        <v>0.9983944296836853</v>
+        <v>0.9853567481040955</v>
       </c>
     </row>
     <row r="63">
@@ -2198,7 +2198,7 @@
         <v>1</v>
       </c>
       <c r="F63" t="n">
-        <v>0.9894853234291077</v>
+        <v>0.9738672375679016</v>
       </c>
     </row>
     <row r="64">
@@ -2226,7 +2226,7 @@
         <v>1</v>
       </c>
       <c r="F64" t="n">
-        <v>0.7437294721603394</v>
+        <v>0.9410669803619385</v>
       </c>
     </row>
     <row r="65">
@@ -2254,7 +2254,7 @@
         <v>1</v>
       </c>
       <c r="F65" t="n">
-        <v>0.9895813465118408</v>
+        <v>0.9738433957099915</v>
       </c>
     </row>
     <row r="66">
@@ -2282,7 +2282,7 @@
         <v>1</v>
       </c>
       <c r="F66" t="n">
-        <v>0.9895813465118408</v>
+        <v>0.9738433957099915</v>
       </c>
     </row>
     <row r="67">
@@ -2310,7 +2310,7 @@
         <v>1</v>
       </c>
       <c r="F67" t="n">
-        <v>0.9894072413444519</v>
+        <v>0.9737415313720703</v>
       </c>
     </row>
     <row r="68">
@@ -2338,7 +2338,7 @@
         <v>1</v>
       </c>
       <c r="F68" t="n">
-        <v>0.9895813465118408</v>
+        <v>0.9738433957099915</v>
       </c>
     </row>
     <row r="69">
@@ -2366,7 +2366,7 @@
         <v>1</v>
       </c>
       <c r="F69" t="n">
-        <v>0.9801018238067627</v>
+        <v>0.9494144916534424</v>
       </c>
     </row>
     <row r="70">
@@ -2394,7 +2394,7 @@
         <v>1</v>
       </c>
       <c r="F70" t="n">
-        <v>0.998357355594635</v>
+        <v>0.9853453040122986</v>
       </c>
     </row>
     <row r="71">
@@ -2422,7 +2422,7 @@
         <v>0</v>
       </c>
       <c r="F71" t="n">
-        <v>0.9745669960975647</v>
+        <v>0.9672660231590271</v>
       </c>
     </row>
     <row r="72">
@@ -2450,7 +2450,7 @@
         <v>1</v>
       </c>
       <c r="F72" t="n">
-        <v>0.9981938004493713</v>
+        <v>0.98519366979599</v>
       </c>
     </row>
     <row r="73">
@@ -2478,7 +2478,7 @@
         <v>1</v>
       </c>
       <c r="F73" t="n">
-        <v>0.9894973039627075</v>
+        <v>0.9739686846733093</v>
       </c>
     </row>
     <row r="74">
@@ -2506,7 +2506,7 @@
         <v>1</v>
       </c>
       <c r="F74" t="n">
-        <v>0.9984109401702881</v>
+        <v>0.9853782653808594</v>
       </c>
     </row>
     <row r="75">
@@ -2534,7 +2534,7 @@
         <v>1</v>
       </c>
       <c r="F75" t="n">
-        <v>0.9983034133911133</v>
+        <v>0.9852649569511414</v>
       </c>
     </row>
     <row r="76">
@@ -2562,7 +2562,7 @@
         <v>1</v>
       </c>
       <c r="F76" t="n">
-        <v>0.9894973039627075</v>
+        <v>0.9739686846733093</v>
       </c>
     </row>
     <row r="77">
@@ -2590,7 +2590,7 @@
         <v>1</v>
       </c>
       <c r="F77" t="n">
-        <v>0.9982543587684631</v>
+        <v>0.9852487444877625</v>
       </c>
     </row>
     <row r="78">
@@ -2618,7 +2618,7 @@
         <v>1</v>
       </c>
       <c r="F78" t="n">
-        <v>0.9894973039627075</v>
+        <v>0.9739686846733093</v>
       </c>
     </row>
     <row r="79">
@@ -2646,7 +2646,7 @@
         <v>1</v>
       </c>
       <c r="F79" t="n">
-        <v>0.9983939528465271</v>
+        <v>0.9853628873825073</v>
       </c>
     </row>
     <row r="80">
@@ -2674,7 +2674,7 @@
         <v>1</v>
       </c>
       <c r="F80" t="n">
-        <v>0.989249587059021</v>
+        <v>0.9735446572303772</v>
       </c>
     </row>
     <row r="81">
@@ -2702,7 +2702,7 @@
         <v>1</v>
       </c>
       <c r="F81" t="n">
-        <v>0.9982905983924866</v>
+        <v>0.9852452874183655</v>
       </c>
     </row>
     <row r="82">
@@ -2730,7 +2730,7 @@
         <v>1</v>
       </c>
       <c r="F82" t="n">
-        <v>0.989249587059021</v>
+        <v>0.9735446572303772</v>
       </c>
     </row>
     <row r="83">
@@ -2758,7 +2758,7 @@
         <v>1</v>
       </c>
       <c r="F83" t="n">
-        <v>0.9982781410217285</v>
+        <v>0.9852495789527893</v>
       </c>
     </row>
     <row r="84">
@@ -2786,7 +2786,7 @@
         <v>1</v>
       </c>
       <c r="F84" t="n">
-        <v>0.9982781410217285</v>
+        <v>0.9852495789527893</v>
       </c>
     </row>
     <row r="85">
@@ -2814,7 +2814,7 @@
         <v>1</v>
       </c>
       <c r="F85" t="n">
-        <v>0.9984400868415833</v>
+        <v>0.9853948354721069</v>
       </c>
     </row>
     <row r="86">
@@ -2842,7 +2842,7 @@
         <v>1</v>
       </c>
       <c r="F86" t="n">
-        <v>0.989069938659668</v>
+        <v>0.9733851552009583</v>
       </c>
     </row>
     <row r="87">
@@ -2870,7 +2870,7 @@
         <v>1</v>
       </c>
       <c r="F87" t="n">
-        <v>0.9983752965927124</v>
+        <v>0.9852028489112854</v>
       </c>
     </row>
     <row r="88">
@@ -2898,7 +2898,7 @@
         <v>1</v>
       </c>
       <c r="F88" t="n">
-        <v>0.9890965819358826</v>
+        <v>0.9734832048416138</v>
       </c>
     </row>
     <row r="89">
@@ -2926,7 +2926,7 @@
         <v>1</v>
       </c>
       <c r="F89" t="n">
-        <v>0.9982941746711731</v>
+        <v>0.9851896166801453</v>
       </c>
     </row>
     <row r="90">
@@ -2954,7 +2954,7 @@
         <v>1</v>
       </c>
       <c r="F90" t="n">
-        <v>0.9984176158905029</v>
+        <v>0.9853785037994385</v>
       </c>
     </row>
     <row r="91">
@@ -2982,7 +2982,7 @@
         <v>1</v>
       </c>
       <c r="F91" t="n">
-        <v>0.9984099864959717</v>
+        <v>0.9853724837303162</v>
       </c>
     </row>
     <row r="92">
@@ -3010,7 +3010,7 @@
         <v>1</v>
       </c>
       <c r="F92" t="n">
-        <v>0.9984180927276611</v>
+        <v>0.9853772521018982</v>
       </c>
     </row>
     <row r="93">
@@ -3038,7 +3038,7 @@
         <v>1</v>
       </c>
       <c r="F93" t="n">
-        <v>0.9984083771705627</v>
+        <v>0.9853630065917969</v>
       </c>
     </row>
     <row r="94">
@@ -3066,7 +3066,7 @@
         <v>1</v>
       </c>
       <c r="F94" t="n">
-        <v>0.9984158277511597</v>
+        <v>0.9853677153587341</v>
       </c>
     </row>
     <row r="95">
@@ -3094,7 +3094,7 @@
         <v>1</v>
       </c>
       <c r="F95" t="n">
-        <v>0.9984180927276611</v>
+        <v>0.98537677526474</v>
       </c>
     </row>
     <row r="96">
@@ -3122,7 +3122,7 @@
         <v>1</v>
       </c>
       <c r="F96" t="n">
-        <v>0.9984386563301086</v>
+        <v>0.9854025840759277</v>
       </c>
     </row>
     <row r="97">
@@ -3150,7 +3150,7 @@
         <v>1</v>
       </c>
       <c r="F97" t="n">
-        <v>0.8599615097045898</v>
+        <v>0.8687621355056763</v>
       </c>
     </row>
     <row r="98">
@@ -3178,7 +3178,7 @@
         <v>1</v>
       </c>
       <c r="F98" t="n">
-        <v>0.998418927192688</v>
+        <v>0.985375702381134</v>
       </c>
     </row>
     <row r="99">
@@ -3199,14 +3199,14 @@
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E99" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F99" t="n">
-        <v>0.9679208397865295</v>
+        <v>0.5048810839653015</v>
       </c>
     </row>
     <row r="100">
@@ -3234,7 +3234,7 @@
         <v>1</v>
       </c>
       <c r="F100" t="n">
-        <v>0.9984006285667419</v>
+        <v>0.9853589534759521</v>
       </c>
     </row>
     <row r="101">
@@ -3262,7 +3262,7 @@
         <v>1</v>
       </c>
       <c r="F101" t="n">
-        <v>0.9983752965927124</v>
+        <v>0.9853286147117615</v>
       </c>
     </row>
     <row r="102">
@@ -3290,7 +3290,7 @@
         <v>1</v>
       </c>
       <c r="F102" t="n">
-        <v>0.9605467915534973</v>
+        <v>0.8852855563163757</v>
       </c>
     </row>
     <row r="103">
@@ -3318,7 +3318,7 @@
         <v>1</v>
       </c>
       <c r="F103" t="n">
-        <v>0.9867143034934998</v>
+        <v>0.9575095176696777</v>
       </c>
     </row>
     <row r="104">
@@ -3346,7 +3346,7 @@
         <v>1</v>
       </c>
       <c r="F104" t="n">
-        <v>0.9983146190643311</v>
+        <v>0.985296905040741</v>
       </c>
     </row>
     <row r="105">
@@ -3374,7 +3374,7 @@
         <v>1</v>
       </c>
       <c r="F105" t="n">
-        <v>0.9811268448829651</v>
+        <v>0.9499965310096741</v>
       </c>
     </row>
     <row r="106">
@@ -3402,7 +3402,7 @@
         <v>1</v>
       </c>
       <c r="F106" t="n">
-        <v>0.9984049201011658</v>
+        <v>0.9853494763374329</v>
       </c>
     </row>
     <row r="107">
@@ -3430,7 +3430,7 @@
         <v>1</v>
       </c>
       <c r="F107" t="n">
-        <v>0.9888423681259155</v>
+        <v>0.9687530398368835</v>
       </c>
     </row>
     <row r="108">
@@ -3458,7 +3458,7 @@
         <v>1</v>
       </c>
       <c r="F108" t="n">
-        <v>0.9724259376525879</v>
+        <v>0.9310727715492249</v>
       </c>
     </row>
     <row r="109">
@@ -3486,7 +3486,7 @@
         <v>1</v>
       </c>
       <c r="F109" t="n">
-        <v>0.9983567595481873</v>
+        <v>0.9852918386459351</v>
       </c>
     </row>
     <row r="110">
@@ -3514,7 +3514,7 @@
         <v>1</v>
       </c>
       <c r="F110" t="n">
-        <v>0.998302698135376</v>
+        <v>0.9852935671806335</v>
       </c>
     </row>
     <row r="111">
@@ -3542,7 +3542,7 @@
         <v>1</v>
       </c>
       <c r="F111" t="n">
-        <v>0.9887231588363647</v>
+        <v>0.9682773351669312</v>
       </c>
     </row>
     <row r="112">
@@ -3570,7 +3570,7 @@
         <v>1</v>
       </c>
       <c r="F112" t="n">
-        <v>0.9884146451950073</v>
+        <v>0.9680243730545044</v>
       </c>
     </row>
     <row r="113">
@@ -3598,7 +3598,7 @@
         <v>1</v>
       </c>
       <c r="F113" t="n">
-        <v>0.9887767434120178</v>
+        <v>0.9734157919883728</v>
       </c>
     </row>
     <row r="114">
@@ -3626,7 +3626,7 @@
         <v>1</v>
       </c>
       <c r="F114" t="n">
-        <v>0.9984216690063477</v>
+        <v>0.9853692650794983</v>
       </c>
     </row>
     <row r="115">
@@ -3654,7 +3654,7 @@
         <v>1</v>
       </c>
       <c r="F115" t="n">
-        <v>0.9894827604293823</v>
+        <v>0.9724958539009094</v>
       </c>
     </row>
     <row r="116">
@@ -3682,7 +3682,7 @@
         <v>1</v>
       </c>
       <c r="F116" t="n">
-        <v>0.9982037544250488</v>
+        <v>0.9845231771469116</v>
       </c>
     </row>
     <row r="117">
@@ -3710,7 +3710,7 @@
         <v>1</v>
       </c>
       <c r="F117" t="n">
-        <v>0.9983327984809875</v>
+        <v>0.985304057598114</v>
       </c>
     </row>
     <row r="118">
@@ -3738,7 +3738,7 @@
         <v>1</v>
       </c>
       <c r="F118" t="n">
-        <v>0.9635476469993591</v>
+        <v>0.9112718105316162</v>
       </c>
     </row>
     <row r="119">
@@ -3759,14 +3759,14 @@
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E119" t="b">
         <v>0</v>
       </c>
       <c r="F119" t="n">
-        <v>0.9541992545127869</v>
+        <v>0.6985839009284973</v>
       </c>
     </row>
     <row r="120">
@@ -3794,7 +3794,7 @@
         <v>1</v>
       </c>
       <c r="F120" t="n">
-        <v>0.998302698135376</v>
+        <v>0.9852935671806335</v>
       </c>
     </row>
     <row r="121">
@@ -3822,7 +3822,7 @@
         <v>1</v>
       </c>
       <c r="F121" t="n">
-        <v>0.9805933237075806</v>
+        <v>0.9496115446090698</v>
       </c>
     </row>
     <row r="122">
@@ -3850,7 +3850,7 @@
         <v>1</v>
       </c>
       <c r="F122" t="n">
-        <v>0.9984526634216309</v>
+        <v>0.9854125380516052</v>
       </c>
     </row>
     <row r="123">
@@ -3878,7 +3878,7 @@
         <v>1</v>
       </c>
       <c r="F123" t="n">
-        <v>0.9805933237075806</v>
+        <v>0.9496115446090698</v>
       </c>
     </row>
     <row r="124">
@@ -3906,7 +3906,7 @@
         <v>1</v>
       </c>
       <c r="F124" t="n">
-        <v>0.9984526634216309</v>
+        <v>0.9854125380516052</v>
       </c>
     </row>
     <row r="125">
@@ -3934,7 +3934,7 @@
         <v>1</v>
       </c>
       <c r="F125" t="n">
-        <v>0.9805933237075806</v>
+        <v>0.9496115446090698</v>
       </c>
     </row>
     <row r="126">
@@ -3962,7 +3962,7 @@
         <v>1</v>
       </c>
       <c r="F126" t="n">
-        <v>0.998406708240509</v>
+        <v>0.9853622913360596</v>
       </c>
     </row>
     <row r="127">
@@ -3990,7 +3990,7 @@
         <v>0</v>
       </c>
       <c r="F127" t="n">
-        <v>0.9656875133514404</v>
+        <v>0.9085462093353271</v>
       </c>
     </row>
     <row r="128">
@@ -4018,7 +4018,7 @@
         <v>1</v>
       </c>
       <c r="F128" t="n">
-        <v>0.998302698135376</v>
+        <v>0.9852935671806335</v>
       </c>
     </row>
     <row r="129">
@@ -4046,7 +4046,7 @@
         <v>1</v>
       </c>
       <c r="F129" t="n">
-        <v>0.4776490330696106</v>
+        <v>0.848922073841095</v>
       </c>
     </row>
     <row r="130">
@@ -4074,7 +4074,7 @@
         <v>0</v>
       </c>
       <c r="F130" t="n">
-        <v>0.9644191265106201</v>
+        <v>0.6858561635017395</v>
       </c>
     </row>
     <row r="131">
@@ -4102,7 +4102,7 @@
         <v>1</v>
       </c>
       <c r="F131" t="n">
-        <v>0.9983356595039368</v>
+        <v>0.9853194952011108</v>
       </c>
     </row>
     <row r="132">
@@ -4130,7 +4130,7 @@
         <v>1</v>
       </c>
       <c r="F132" t="n">
-        <v>0.7637968063354492</v>
+        <v>0.7881121039390564</v>
       </c>
     </row>
     <row r="133">
@@ -4158,7 +4158,7 @@
         <v>1</v>
       </c>
       <c r="F133" t="n">
-        <v>0.9983653426170349</v>
+        <v>0.9853159785270691</v>
       </c>
     </row>
     <row r="134">
@@ -4186,7 +4186,7 @@
         <v>0</v>
       </c>
       <c r="F134" t="n">
-        <v>0.9982811212539673</v>
+        <v>0.9852707386016846</v>
       </c>
     </row>
     <row r="135">
@@ -4214,7 +4214,7 @@
         <v>1</v>
       </c>
       <c r="F135" t="n">
-        <v>0.9983194470405579</v>
+        <v>0.9852917194366455</v>
       </c>
     </row>
     <row r="136">
@@ -4242,7 +4242,7 @@
         <v>1</v>
       </c>
       <c r="F136" t="n">
-        <v>0.9964466691017151</v>
+        <v>0.9836536049842834</v>
       </c>
     </row>
     <row r="137">
@@ -4270,7 +4270,7 @@
         <v>1</v>
       </c>
       <c r="F137" t="n">
-        <v>0.9983673691749573</v>
+        <v>0.9853293299674988</v>
       </c>
     </row>
     <row r="138">
@@ -4298,7 +4298,7 @@
         <v>1</v>
       </c>
       <c r="F138" t="n">
-        <v>0.9983680844306946</v>
+        <v>0.9852443933486938</v>
       </c>
     </row>
     <row r="139">
@@ -4326,7 +4326,7 @@
         <v>1</v>
       </c>
       <c r="F139" t="n">
-        <v>0.9983547329902649</v>
+        <v>0.9853261709213257</v>
       </c>
     </row>
     <row r="140">
@@ -4354,7 +4354,7 @@
         <v>1</v>
       </c>
       <c r="F140" t="n">
-        <v>0.9982966780662537</v>
+        <v>0.9852810502052307</v>
       </c>
     </row>
     <row r="141">
@@ -4382,7 +4382,7 @@
         <v>1</v>
       </c>
       <c r="F141" t="n">
-        <v>0.9971207976341248</v>
+        <v>0.8971710205078125</v>
       </c>
     </row>
     <row r="142">
@@ -4410,7 +4410,7 @@
         <v>1</v>
       </c>
       <c r="F142" t="n">
-        <v>0.998302698135376</v>
+        <v>0.9852935671806335</v>
       </c>
     </row>
     <row r="143">
@@ -4438,7 +4438,7 @@
         <v>1</v>
       </c>
       <c r="F143" t="n">
-        <v>0.9893689751625061</v>
+        <v>0.9737333059310913</v>
       </c>
     </row>
     <row r="144">
@@ -4466,7 +4466,7 @@
         <v>1</v>
       </c>
       <c r="F144" t="n">
-        <v>0.9984172582626343</v>
+        <v>0.9853765368461609</v>
       </c>
     </row>
     <row r="145">
@@ -4494,7 +4494,7 @@
         <v>1</v>
       </c>
       <c r="F145" t="n">
-        <v>0.9893689751625061</v>
+        <v>0.9737333059310913</v>
       </c>
     </row>
     <row r="146">
@@ -4522,7 +4522,7 @@
         <v>1</v>
       </c>
       <c r="F146" t="n">
-        <v>0.9982896447181702</v>
+        <v>0.985289990901947</v>
       </c>
     </row>
     <row r="147">
@@ -4550,7 +4550,7 @@
         <v>1</v>
       </c>
       <c r="F147" t="n">
-        <v>0.9801018238067627</v>
+        <v>0.9494144916534424</v>
       </c>
     </row>
     <row r="148">
@@ -4578,7 +4578,7 @@
         <v>1</v>
       </c>
       <c r="F148" t="n">
-        <v>0.9983890056610107</v>
+        <v>0.9853681921958923</v>
       </c>
     </row>
     <row r="149">
@@ -4606,7 +4606,7 @@
         <v>1</v>
       </c>
       <c r="F149" t="n">
-        <v>0.9894652366638184</v>
+        <v>0.9737701416015625</v>
       </c>
     </row>
     <row r="150">
@@ -4634,7 +4634,7 @@
         <v>1</v>
       </c>
       <c r="F150" t="n">
-        <v>0.7866640686988831</v>
+        <v>0.8044374585151672</v>
       </c>
     </row>
     <row r="151">
@@ -4662,7 +4662,7 @@
         <v>1</v>
       </c>
       <c r="F151" t="n">
-        <v>0.998302698135376</v>
+        <v>0.9852935671806335</v>
       </c>
     </row>
     <row r="152">
@@ -4690,7 +4690,7 @@
         <v>1</v>
       </c>
       <c r="F152" t="n">
-        <v>0.9354816675186157</v>
+        <v>0.9003103971481323</v>
       </c>
     </row>
     <row r="153">
@@ -4718,7 +4718,7 @@
         <v>1</v>
       </c>
       <c r="F153" t="n">
-        <v>0.9984484910964966</v>
+        <v>0.9853916764259338</v>
       </c>
     </row>
     <row r="154">
@@ -4746,7 +4746,7 @@
         <v>1</v>
       </c>
       <c r="F154" t="n">
-        <v>0.9748245477676392</v>
+        <v>0.9315928816795349</v>
       </c>
     </row>
     <row r="155">
@@ -4774,7 +4774,7 @@
         <v>1</v>
       </c>
       <c r="F155" t="n">
-        <v>0.9984188079833984</v>
+        <v>0.985370397567749</v>
       </c>
     </row>
     <row r="156">
@@ -4802,7 +4802,7 @@
         <v>1</v>
       </c>
       <c r="F156" t="n">
-        <v>0.9745296239852905</v>
+        <v>0.9312819838523865</v>
       </c>
     </row>
     <row r="157">
@@ -4830,7 +4830,7 @@
         <v>1</v>
       </c>
       <c r="F157" t="n">
-        <v>0.998431384563446</v>
+        <v>0.9853797554969788</v>
       </c>
     </row>
     <row r="158">
@@ -4858,7 +4858,7 @@
         <v>1</v>
       </c>
       <c r="F158" t="n">
-        <v>0.9740968942642212</v>
+        <v>0.9312528967857361</v>
       </c>
     </row>
     <row r="159">
@@ -4886,7 +4886,7 @@
         <v>1</v>
       </c>
       <c r="F159" t="n">
-        <v>0.9984227418899536</v>
+        <v>0.9853780269622803</v>
       </c>
     </row>
     <row r="160">
@@ -4914,7 +4914,7 @@
         <v>1</v>
       </c>
       <c r="F160" t="n">
-        <v>0.9853513240814209</v>
+        <v>0.9578633308410645</v>
       </c>
     </row>
     <row r="161">
@@ -4942,7 +4942,7 @@
         <v>1</v>
       </c>
       <c r="F161" t="n">
-        <v>0.9983195662498474</v>
+        <v>0.9853203892707825</v>
       </c>
     </row>
     <row r="162">
@@ -4970,7 +4970,7 @@
         <v>0</v>
       </c>
       <c r="F162" t="n">
-        <v>0.9211662411689758</v>
+        <v>0.9617626070976257</v>
       </c>
     </row>
     <row r="163">
@@ -4998,7 +4998,7 @@
         <v>1</v>
       </c>
       <c r="F163" t="n">
-        <v>0.9983339905738831</v>
+        <v>0.9852936863899231</v>
       </c>
     </row>
     <row r="164">
@@ -5026,7 +5026,7 @@
         <v>1</v>
       </c>
       <c r="F164" t="n">
-        <v>0.9887107014656067</v>
+        <v>0.9736446738243103</v>
       </c>
     </row>
     <row r="165">
@@ -5054,7 +5054,7 @@
         <v>1</v>
       </c>
       <c r="F165" t="n">
-        <v>0.9984279870986938</v>
+        <v>0.9853721261024475</v>
       </c>
     </row>
     <row r="166">
@@ -5082,7 +5082,7 @@
         <v>0</v>
       </c>
       <c r="F166" t="n">
-        <v>0.9863714575767517</v>
+        <v>0.9606481194496155</v>
       </c>
     </row>
     <row r="167">
@@ -5110,7 +5110,7 @@
         <v>1</v>
       </c>
       <c r="F167" t="n">
-        <v>0.9882623553276062</v>
+        <v>0.9680317640304565</v>
       </c>
     </row>
     <row r="168">
@@ -5138,7 +5138,7 @@
         <v>0</v>
       </c>
       <c r="F168" t="n">
-        <v>0.9877802133560181</v>
+        <v>0.972392201423645</v>
       </c>
     </row>
     <row r="169">
@@ -5166,7 +5166,7 @@
         <v>1</v>
       </c>
       <c r="F169" t="n">
-        <v>0.998302698135376</v>
+        <v>0.9852935671806335</v>
       </c>
     </row>
     <row r="170">
@@ -5194,7 +5194,7 @@
         <v>1</v>
       </c>
       <c r="F170" t="n">
-        <v>0.9882623553276062</v>
+        <v>0.9680317640304565</v>
       </c>
     </row>
     <row r="171">
@@ -5222,7 +5222,7 @@
         <v>0</v>
       </c>
       <c r="F171" t="n">
-        <v>0.9877493977546692</v>
+        <v>0.9724019169807434</v>
       </c>
     </row>
     <row r="172">
@@ -5250,7 +5250,7 @@
         <v>1</v>
       </c>
       <c r="F172" t="n">
-        <v>0.998302698135376</v>
+        <v>0.9852935671806335</v>
       </c>
     </row>
     <row r="173">
@@ -5278,7 +5278,7 @@
         <v>1</v>
       </c>
       <c r="F173" t="n">
-        <v>0.998359739780426</v>
+        <v>0.9853352308273315</v>
       </c>
     </row>
     <row r="174">
@@ -5306,7 +5306,7 @@
         <v>1</v>
       </c>
       <c r="F174" t="n">
-        <v>0.9983698725700378</v>
+        <v>0.9853257536888123</v>
       </c>
     </row>
     <row r="175">
@@ -5334,7 +5334,7 @@
         <v>1</v>
       </c>
       <c r="F175" t="n">
-        <v>0.998359739780426</v>
+        <v>0.9853352308273315</v>
       </c>
     </row>
     <row r="176">
@@ -5362,7 +5362,7 @@
         <v>1</v>
       </c>
       <c r="F176" t="n">
-        <v>0.998359739780426</v>
+        <v>0.9853352308273315</v>
       </c>
     </row>
     <row r="177">
@@ -5390,7 +5390,7 @@
         <v>1</v>
       </c>
       <c r="F177" t="n">
-        <v>0.9983698725700378</v>
+        <v>0.9853257536888123</v>
       </c>
     </row>
     <row r="178">
@@ -5418,7 +5418,7 @@
         <v>1</v>
       </c>
       <c r="F178" t="n">
-        <v>0.9983906745910645</v>
+        <v>0.9853616952896118</v>
       </c>
     </row>
     <row r="179">
@@ -5446,7 +5446,7 @@
         <v>1</v>
       </c>
       <c r="F179" t="n">
-        <v>0.9982324242591858</v>
+        <v>0.9852501749992371</v>
       </c>
     </row>
     <row r="180">
@@ -5474,7 +5474,7 @@
         <v>1</v>
       </c>
       <c r="F180" t="n">
-        <v>0.9983179569244385</v>
+        <v>0.9852674007415771</v>
       </c>
     </row>
     <row r="181">
@@ -5502,7 +5502,7 @@
         <v>1</v>
       </c>
       <c r="F181" t="n">
-        <v>0.9983451366424561</v>
+        <v>0.9853013157844543</v>
       </c>
     </row>
     <row r="182">
@@ -5530,7 +5530,7 @@
         <v>1</v>
       </c>
       <c r="F182" t="n">
-        <v>0.9983603358268738</v>
+        <v>0.9853165745735168</v>
       </c>
     </row>
     <row r="183">
@@ -5558,7 +5558,7 @@
         <v>1</v>
       </c>
       <c r="F183" t="n">
-        <v>0.9792271256446838</v>
+        <v>0.9491186738014221</v>
       </c>
     </row>
     <row r="184">
@@ -5586,7 +5586,7 @@
         <v>1</v>
       </c>
       <c r="F184" t="n">
-        <v>0.9984328150749207</v>
+        <v>0.9853919148445129</v>
       </c>
     </row>
     <row r="185">
@@ -5614,7 +5614,7 @@
         <v>1</v>
       </c>
       <c r="F185" t="n">
-        <v>0.9984416365623474</v>
+        <v>0.9853948354721069</v>
       </c>
     </row>
     <row r="186">
@@ -5642,7 +5642,7 @@
         <v>1</v>
       </c>
       <c r="F186" t="n">
-        <v>0.9984488487243652</v>
+        <v>0.9854066371917725</v>
       </c>
     </row>
     <row r="187">
@@ -5670,7 +5670,7 @@
         <v>1</v>
       </c>
       <c r="F187" t="n">
-        <v>0.9984210729598999</v>
+        <v>0.985355019569397</v>
       </c>
     </row>
     <row r="188">
@@ -5698,7 +5698,7 @@
         <v>1</v>
       </c>
       <c r="F188" t="n">
-        <v>0.9983890056610107</v>
+        <v>0.9853506088256836</v>
       </c>
     </row>
     <row r="189">
@@ -5726,7 +5726,7 @@
         <v>1</v>
       </c>
       <c r="F189" t="n">
-        <v>0.9983957409858704</v>
+        <v>0.9853338003158569</v>
       </c>
     </row>
     <row r="190">
@@ -5754,7 +5754,7 @@
         <v>1</v>
       </c>
       <c r="F190" t="n">
-        <v>0.9983869791030884</v>
+        <v>0.9853289723396301</v>
       </c>
     </row>
     <row r="191">
@@ -5782,7 +5782,7 @@
         <v>1</v>
       </c>
       <c r="F191" t="n">
-        <v>0.8808441162109375</v>
+        <v>0.8714392185211182</v>
       </c>
     </row>
     <row r="192">
@@ -5810,7 +5810,7 @@
         <v>1</v>
       </c>
       <c r="F192" t="n">
-        <v>0.9983635544776917</v>
+        <v>0.9853260517120361</v>
       </c>
     </row>
     <row r="193">
@@ -5838,7 +5838,7 @@
         <v>1</v>
       </c>
       <c r="F193" t="n">
-        <v>0.9983459711074829</v>
+        <v>0.9853065013885498</v>
       </c>
     </row>
     <row r="194">
@@ -5866,7 +5866,7 @@
         <v>1</v>
       </c>
       <c r="F194" t="n">
-        <v>0.9803847074508667</v>
+        <v>0.9495536684989929</v>
       </c>
     </row>
     <row r="195">
@@ -5894,7 +5894,7 @@
         <v>1</v>
       </c>
       <c r="F195" t="n">
-        <v>0.9894217848777771</v>
+        <v>0.9688684344291687</v>
       </c>
     </row>
     <row r="196">
@@ -5922,7 +5922,7 @@
         <v>1</v>
       </c>
       <c r="F196" t="n">
-        <v>0.9984328150749207</v>
+        <v>0.9853888154029846</v>
       </c>
     </row>
     <row r="197">
@@ -5950,7 +5950,7 @@
         <v>1</v>
       </c>
       <c r="F197" t="n">
-        <v>0.9984269142150879</v>
+        <v>0.9853783845901489</v>
       </c>
     </row>
     <row r="198">
@@ -5978,7 +5978,7 @@
         <v>1</v>
       </c>
       <c r="F198" t="n">
-        <v>0.9984367489814758</v>
+        <v>0.9853833913803101</v>
       </c>
     </row>
     <row r="199">
@@ -6006,7 +6006,7 @@
         <v>1</v>
       </c>
       <c r="F199" t="n">
-        <v>0.9983494281768799</v>
+        <v>0.9852948188781738</v>
       </c>
     </row>
     <row r="200">
@@ -6034,7 +6034,7 @@
         <v>0</v>
       </c>
       <c r="F200" t="n">
-        <v>0.9637568593025208</v>
+        <v>0.9567672610282898</v>
       </c>
     </row>
     <row r="201">
@@ -6062,7 +6062,7 @@
         <v>1</v>
       </c>
       <c r="F201" t="n">
-        <v>0.9983859062194824</v>
+        <v>0.9853491187095642</v>
       </c>
     </row>
     <row r="202">
@@ -6090,7 +6090,7 @@
         <v>1</v>
       </c>
       <c r="F202" t="n">
-        <v>0.9984063506126404</v>
+        <v>0.9853627681732178</v>
       </c>
     </row>
     <row r="203">
@@ -6118,7 +6118,7 @@
         <v>1</v>
       </c>
       <c r="F203" t="n">
-        <v>0.9983345866203308</v>
+        <v>0.985270082950592</v>
       </c>
     </row>
     <row r="204">
@@ -6146,7 +6146,7 @@
         <v>1</v>
       </c>
       <c r="F204" t="n">
-        <v>0.9877833724021912</v>
+        <v>0.9682193398475647</v>
       </c>
     </row>
     <row r="205">
@@ -6174,7 +6174,7 @@
         <v>1</v>
       </c>
       <c r="F205" t="n">
-        <v>0.9984184503555298</v>
+        <v>0.985371470451355</v>
       </c>
     </row>
     <row r="206">
@@ -6202,7 +6202,7 @@
         <v>1</v>
       </c>
       <c r="F206" t="n">
-        <v>0.9983541965484619</v>
+        <v>0.9853222370147705</v>
       </c>
     </row>
     <row r="207">
@@ -6230,7 +6230,7 @@
         <v>1</v>
       </c>
       <c r="F207" t="n">
-        <v>0.8759400248527527</v>
+        <v>0.8740666508674622</v>
       </c>
     </row>
     <row r="208">
@@ -6258,7 +6258,7 @@
         <v>1</v>
       </c>
       <c r="F208" t="n">
-        <v>0.9982228875160217</v>
+        <v>0.9851874113082886</v>
       </c>
     </row>
     <row r="209">
@@ -6286,7 +6286,7 @@
         <v>1</v>
       </c>
       <c r="F209" t="n">
-        <v>0.7178460359573364</v>
+        <v>0.7750197052955627</v>
       </c>
     </row>
     <row r="210">
@@ -6314,7 +6314,7 @@
         <v>1</v>
       </c>
       <c r="F210" t="n">
-        <v>0.9983358979225159</v>
+        <v>0.9853191375732422</v>
       </c>
     </row>
   </sheetData>
